--- a/prix/rexuo.xlsx
+++ b/prix/rexuo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{174532D6-599E-453D-BC1F-AE38E8FEA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84A584-DAF4-4297-91E2-F2BDF9756C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -36,34 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t>N° d'article</t>
-  </si>
-  <si>
-    <t>Dénomination</t>
-  </si>
-  <si>
-    <t>Prix de revient fourn.</t>
-  </si>
-  <si>
-    <t>N° d'art. fournisseur</t>
-  </si>
-  <si>
-    <t>Prix 1</t>
-  </si>
-  <si>
-    <t>Incl. Prix 4</t>
-  </si>
-  <si>
-    <t>Prix d'achat</t>
-  </si>
-  <si>
-    <t>Prix de rev.</t>
-  </si>
-  <si>
-    <t>Disponible</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>43040806</t>
   </si>
@@ -71,115 +44,106 @@
     <t>Rexuo tuyau 25x4.2  LD-PE40</t>
   </si>
   <si>
-    <t>011804</t>
-  </si>
-  <si>
     <t>43040810</t>
   </si>
   <si>
     <t>Rexuo tuyau 32x3.0  HD-PE80</t>
   </si>
   <si>
-    <t>PETU8011032</t>
-  </si>
-  <si>
     <t>43040820</t>
   </si>
   <si>
     <t>Rexuo coude 25x25 se19</t>
   </si>
   <si>
-    <t>SE1925</t>
-  </si>
-  <si>
     <t>43040824</t>
   </si>
   <si>
     <t>Rexuo coude 32x32 se19</t>
   </si>
   <si>
-    <t>SE1932</t>
-  </si>
-  <si>
     <t>43040830</t>
   </si>
   <si>
     <t>Rexuo rac te 25x25x25 se21</t>
   </si>
   <si>
-    <t>SE2125</t>
-  </si>
-  <si>
     <t>43040834</t>
   </si>
   <si>
     <t>Rexuo rac te 32x32x32 se21</t>
   </si>
   <si>
-    <t>SE2132</t>
-  </si>
-  <si>
     <t>43040840</t>
   </si>
   <si>
     <t>Rexuo culasse 25x1/2  se125</t>
   </si>
   <si>
-    <t>SE1252512</t>
-  </si>
-  <si>
     <t>43040870</t>
   </si>
   <si>
     <t>Rexuo rac 25x3/4 M SE13 (10p)</t>
   </si>
   <si>
-    <t>SE1325</t>
-  </si>
-  <si>
     <t>43040874</t>
   </si>
   <si>
     <t>Rexuo rac 32x4/4 M SE13 (5p)</t>
   </si>
   <si>
-    <t>SE1332</t>
-  </si>
-  <si>
     <t>43040880</t>
   </si>
   <si>
     <t>Rexuo rac F 25x3/4 SE14</t>
   </si>
   <si>
-    <t>SE1425</t>
-  </si>
-  <si>
     <t>43040884</t>
   </si>
   <si>
     <t>Rexuo rac 32x4/4 F SE14  (5p)</t>
   </si>
   <si>
-    <t>SE1432</t>
-  </si>
-  <si>
     <t>43040890</t>
   </si>
   <si>
     <t>Rexuo man court 25x25 SE12</t>
   </si>
   <si>
-    <t>SE1225</t>
-  </si>
-  <si>
     <t>43040894</t>
   </si>
   <si>
     <t>Rexuo man court 32x32 SE12 (5p)</t>
   </si>
   <si>
-    <t>SE1232</t>
+    <t>path</t>
+  </si>
+  <si>
+    <t>Denomination</t>
+  </si>
+  <si>
+    <t>taille</t>
+  </si>
+  <si>
+    <t>prix_tvac</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/rexuo/coude.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/rexuo/manchon.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/rexuo/rac-femelle.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/rexuo/rac-male.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/rexuo/te.png</t>
   </si>
 </sst>
 </file>
@@ -189,8 +153,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -218,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -229,7 +201,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,425 +539,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18B34CA-74C9-46C9-A5CE-03F7E37895F6}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.77734375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="21.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.68</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="I2" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2">
-        <v>1.86</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>14.16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
-        <v>23.36</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>35.39</v>
-      </c>
-      <c r="H4" s="2">
-        <v>14.16</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20.02</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>33.03</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>50.050000000000004</v>
-      </c>
-      <c r="H5" s="2">
-        <v>20.02</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
-        <v>17.45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
-        <v>28.79</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43.62</v>
-      </c>
-      <c r="H6" s="2">
-        <v>17.45</v>
-      </c>
-      <c r="I6" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>28.95</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2">
-        <v>47.77</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>72.37</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28.95</v>
-      </c>
-      <c r="I7" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>11.15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
-        <v>18.400000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>27.87</v>
-      </c>
-      <c r="H8" s="2">
-        <v>11.15</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.96</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9.83</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>14.89</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5.96</v>
-      </c>
-      <c r="I9" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11.73</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2">
-        <v>19.38</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>29.32</v>
-      </c>
-      <c r="H10" s="2">
-        <v>11.73</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11.450000000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>17.25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11.46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>28.66</v>
-      </c>
-      <c r="H12" s="2">
-        <v>11.46</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.2900000000000009</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2">
-        <v>13.68</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>20.73</v>
-      </c>
-      <c r="H13" s="2">
-        <v>8.2900000000000009</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14.08</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2">
-        <v>23.23</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H14" s="2">
-        <v>14.08</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/prix/rexuo.xlsx
+++ b/prix/rexuo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84A584-DAF4-4297-91E2-F2BDF9756C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C19AD81-FA80-4B62-8426-935FEA39C4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{4E6DADB0-7397-45D0-B450-49581E83838D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>43040806</t>
   </si>
@@ -144,6 +144,42 @@
   </si>
   <si>
     <t>acc-tube-polyethylene/rexuo/te.png</t>
+  </si>
+  <si>
+    <t>25-25-se19</t>
+  </si>
+  <si>
+    <t>32-32-se21</t>
+  </si>
+  <si>
+    <t>25-25-se21</t>
+  </si>
+  <si>
+    <t>25-1/2-se125</t>
+  </si>
+  <si>
+    <t>25-3/4-se13</t>
+  </si>
+  <si>
+    <t>32-4/4-se13</t>
+  </si>
+  <si>
+    <t>25-3/4-se14</t>
+  </si>
+  <si>
+    <t>32-4/4-se14</t>
+  </si>
+  <si>
+    <t>25-25-se12</t>
+  </si>
+  <si>
+    <t>32-32-se12</t>
+  </si>
+  <si>
+    <t>25-4,2</t>
+  </si>
+  <si>
+    <t>32-3,0</t>
   </si>
 </sst>
 </file>
@@ -190,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -203,7 +239,16 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,13 +587,14 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5546875" style="6"/>
     <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
@@ -585,136 +631,214 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8">
+        <v>28.27</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>39.97</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8">
+        <v>57.800000000000004</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8">
+        <v>22.26</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11.89</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8">
+        <v>17.88</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8">
+        <v>13.85</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8">
+        <v>22.92</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8">
+        <v>16.55</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8">
+        <v>28.11</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
